--- a/REGULAR/OJT/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/OJT/ALEGA, ESTELITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ABA2F4-7AAD-4ACD-99C8-33E0C4D7D5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="572">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1758,11 +1757,14 @@
   <si>
     <t>6/29,30/2023</t>
   </si>
+  <si>
+    <t>7/7,10,11/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2446,7 +2448,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2463,26 +2465,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K709" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K709" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K710" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K710"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2789,34 +2791,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K709"/>
+  <dimension ref="A2:K710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A667" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A661" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E673" sqref="E673"/>
+      <selection pane="bottomLeft" activeCell="E680" sqref="E680"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2839,7 +2841,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2861,7 +2863,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2883,7 +2885,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2891,7 +2893,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2904,7 +2906,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2921,7 +2923,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2965,7 +2967,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>17.137000000000114</v>
+        <v>14.137000000000114</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2980,7 +2982,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>536</v>
       </c>
@@ -2995,7 +2997,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36601</v>
       </c>
@@ -3019,7 +3021,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>550</v>
@@ -3037,7 +3039,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36617</v>
       </c>
@@ -3061,7 +3063,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>387</v>
@@ -3079,7 +3081,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36647</v>
       </c>
@@ -3103,7 +3105,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36678</v>
       </c>
@@ -3127,7 +3129,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36708</v>
       </c>
@@ -3151,7 +3153,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36739</v>
       </c>
@@ -3175,7 +3177,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>142</v>
@@ -3197,7 +3199,7 @@
         <v>36755</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>142</v>
@@ -3219,7 +3221,7 @@
         <v>36759</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36770</v>
       </c>
@@ -3243,7 +3245,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36800</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>142</v>
@@ -3291,7 +3293,7 @@
         <v>36805</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>302</v>
@@ -3313,7 +3315,7 @@
         <v>36808</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>421</v>
@@ -3335,7 +3337,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>142</v>
@@ -3357,7 +3359,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36831</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>544</v>
@@ -3401,7 +3403,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36861</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>117</v>
@@ -3449,7 +3451,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>547</v>
@@ -3469,7 +3471,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>125</v>
       </c>
@@ -3487,7 +3489,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36892</v>
       </c>
@@ -3513,7 +3515,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>147</v>
@@ -3533,7 +3535,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>143</v>
@@ -3553,7 +3555,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36923</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>231</v>
@@ -3599,7 +3601,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36951</v>
       </c>
@@ -3625,7 +3627,7 @@
         <v>36593</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>259</v>
@@ -3645,7 +3647,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36982</v>
       </c>
@@ -3669,7 +3671,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>147</v>
@@ -3689,7 +3691,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>147</v>
@@ -3709,7 +3711,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37012</v>
       </c>
@@ -3733,7 +3735,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>148</v>
@@ -3755,7 +3757,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>142</v>
@@ -3777,7 +3779,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37043</v>
       </c>
@@ -3801,7 +3803,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>153</v>
@@ -3823,7 +3825,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37073</v>
       </c>
@@ -3849,7 +3851,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>142</v>
@@ -3871,7 +3873,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>155</v>
@@ -3893,7 +3895,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37104</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>37112</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>142</v>
@@ -3941,7 +3943,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>157</v>
@@ -3961,7 +3963,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37135</v>
       </c>
@@ -3987,7 +3989,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>159</v>
@@ -4007,7 +4009,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37165</v>
       </c>
@@ -4033,7 +4035,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>162</v>
@@ -4057,7 +4059,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>165</v>
@@ -4079,7 +4081,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>164</v>
@@ -4099,7 +4101,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37196</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>165</v>
@@ -4147,7 +4149,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>236</v>
@@ -4167,7 +4169,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>167</v>
@@ -4187,7 +4189,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37226</v>
       </c>
@@ -4213,7 +4215,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>170</v>
@@ -4233,7 +4235,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
         <v>141</v>
       </c>
@@ -4253,7 +4255,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37257</v>
       </c>
@@ -4279,7 +4281,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>171</v>
@@ -4299,7 +4301,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37288</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>37294</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>142</v>
@@ -4347,7 +4349,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>176</v>
@@ -4369,7 +4371,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37316</v>
       </c>
@@ -4393,7 +4395,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>174</v>
@@ -4415,7 +4417,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>175</v>
@@ -4435,7 +4437,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37347</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>176</v>
@@ -4483,7 +4485,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>218</v>
@@ -4503,7 +4505,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37377</v>
       </c>
@@ -4529,7 +4531,7 @@
         <v>37442</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>165</v>
@@ -4553,7 +4555,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>162</v>
@@ -4575,7 +4577,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>165</v>
@@ -4597,7 +4599,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>177</v>
@@ -4617,7 +4619,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37408</v>
       </c>
@@ -4643,7 +4645,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>165</v>
@@ -4665,7 +4667,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>178</v>
@@ -4683,7 +4685,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37438</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>37536</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>191</v>
@@ -4733,7 +4735,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>246</v>
@@ -4755,7 +4757,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>309</v>
@@ -4775,7 +4777,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37469</v>
       </c>
@@ -4801,7 +4803,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37500</v>
       </c>
@@ -4827,7 +4829,7 @@
         <v>37508</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>191</v>
@@ -4851,7 +4853,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37530</v>
       </c>
@@ -4877,7 +4879,7 @@
         <v>37113</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>174</v>
@@ -4901,7 +4903,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37561</v>
       </c>
@@ -4927,7 +4929,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>165</v>
@@ -4951,7 +4953,7 @@
         <v>37479</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>165</v>
@@ -4973,7 +4975,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>191</v>
@@ -4993,7 +4995,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>195</v>
@@ -5013,7 +5015,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37591</v>
       </c>
@@ -5039,7 +5041,7 @@
         <v>37602</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="49" t="s">
         <v>140</v>
       </c>
@@ -5057,7 +5059,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37622</v>
       </c>
@@ -5079,7 +5081,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>142</v>
@@ -5101,7 +5103,7 @@
         <v>37631</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>165</v>
@@ -5125,7 +5127,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>147</v>
@@ -5145,7 +5147,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>198</v>
@@ -5167,7 +5169,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="48"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37653</v>
       </c>
@@ -5193,7 +5195,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37681</v>
       </c>
@@ -5221,7 +5223,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>202</v>
@@ -5241,7 +5243,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37712</v>
       </c>
@@ -5269,7 +5271,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>236</v>
@@ -5291,7 +5293,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5309,7 +5311,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37742</v>
       </c>
@@ -5333,7 +5335,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37773</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>37747</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>191</v>
@@ -5383,7 +5385,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37803</v>
       </c>
@@ -5409,7 +5411,7 @@
         <v>37871</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>246</v>
@@ -5431,7 +5433,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>207</v>
@@ -5451,7 +5453,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37834</v>
       </c>
@@ -5479,7 +5481,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>165</v>
@@ -5499,7 +5501,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>165</v>
@@ -5521,7 +5523,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37865</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>37964</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>142</v>
@@ -5569,7 +5571,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>211</v>
@@ -5591,7 +5593,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37895</v>
       </c>
@@ -5617,7 +5619,7 @@
         <v>37782</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>191</v>
@@ -5641,7 +5643,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>165</v>
@@ -5663,7 +5665,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>215</v>
@@ -5685,7 +5687,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37926</v>
       </c>
@@ -5709,7 +5711,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37956</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>220</v>
@@ -5753,7 +5755,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="49" t="s">
         <v>139</v>
       </c>
@@ -5771,7 +5773,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>37987</v>
       </c>
@@ -5797,7 +5799,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>221</v>
@@ -5817,7 +5819,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38018</v>
       </c>
@@ -5843,7 +5845,7 @@
         <v>37291</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>147</v>
@@ -5863,7 +5865,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>223</v>
@@ -5883,7 +5885,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38047</v>
       </c>
@@ -5909,7 +5911,7 @@
         <v>38047</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>165</v>
@@ -5931,7 +5933,7 @@
         <v>38062</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>165</v>
@@ -5953,7 +5955,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>225</v>
@@ -5973,7 +5975,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38078</v>
       </c>
@@ -5999,7 +6001,7 @@
         <v>38142</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>165</v>
@@ -6023,7 +6025,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>165</v>
@@ -6045,7 +6047,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>224</v>
@@ -6065,7 +6067,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="48"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38108</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>38113</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>142</v>
@@ -6115,7 +6117,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>165</v>
@@ -6139,7 +6141,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>230</v>
@@ -6159,7 +6161,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38139</v>
       </c>
@@ -6179,7 +6181,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="48"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38169</v>
       </c>
@@ -6205,7 +6207,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>165</v>
@@ -6229,7 +6231,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>231</v>
@@ -6249,7 +6251,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="48"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38200</v>
       </c>
@@ -6275,7 +6277,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>191</v>
@@ -6299,7 +6301,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>165</v>
@@ -6321,7 +6323,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>146</v>
@@ -6341,7 +6343,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38231</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>236</v>
@@ -6389,7 +6391,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>238</v>
@@ -6409,7 +6411,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38261</v>
       </c>
@@ -6435,7 +6437,7 @@
         <v>37996</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>165</v>
@@ -6459,7 +6461,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>240</v>
@@ -6479,7 +6481,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38292</v>
       </c>
@@ -6505,7 +6507,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>165</v>
@@ -6529,7 +6531,7 @@
         <v>38149</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>165</v>
@@ -6551,7 +6553,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>242</v>
@@ -6571,7 +6573,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38322</v>
       </c>
@@ -6597,7 +6599,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>244</v>
@@ -6617,7 +6619,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="49" t="s">
         <v>138</v>
       </c>
@@ -6635,7 +6637,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38353</v>
       </c>
@@ -6657,7 +6659,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>142</v>
@@ -6679,7 +6681,7 @@
         <v>38365</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>236</v>
@@ -6703,7 +6705,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>147</v>
@@ -6723,7 +6725,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>147</v>
@@ -6743,7 +6745,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38384</v>
       </c>
@@ -6763,7 +6765,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38412</v>
       </c>
@@ -6789,7 +6791,7 @@
         <v>38428</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>142</v>
@@ -6811,7 +6813,7 @@
         <v>38438</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38443</v>
       </c>
@@ -6837,7 +6839,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>38473</v>
       </c>
@@ -6863,7 +6865,7 @@
         <v>38482</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>142</v>
@@ -6885,7 +6887,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>236</v>
@@ -6907,7 +6909,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>38504</v>
       </c>
@@ -6933,7 +6935,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>165</v>
@@ -6957,7 +6959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>38534</v>
       </c>
@@ -6985,7 +6987,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>38565</v>
       </c>
@@ -7005,7 +7007,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38596</v>
       </c>
@@ -7031,7 +7033,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>142</v>
@@ -7053,7 +7055,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>38626</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>38657</v>
       </c>
@@ -7099,7 +7101,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>38687</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>142</v>
@@ -7147,7 +7149,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>254</v>
@@ -7167,7 +7169,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="49" t="s">
         <v>137</v>
       </c>
@@ -7189,7 +7191,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38718</v>
       </c>
@@ -7213,7 +7215,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>117</v>
@@ -7235,7 +7237,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>191</v>
@@ -7257,7 +7259,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>165</v>
@@ -7279,7 +7281,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>38749</v>
       </c>
@@ -7303,7 +7305,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>142</v>
@@ -7325,7 +7327,7 @@
         <v>38962</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>259</v>
@@ -7345,7 +7347,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>38777</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>147</v>
@@ -7391,7 +7393,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>142</v>
@@ -7413,7 +7415,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>236</v>
@@ -7435,7 +7437,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>147</v>
@@ -7455,7 +7457,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38808</v>
       </c>
@@ -7483,7 +7485,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>142</v>
@@ -7505,7 +7507,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>142</v>
@@ -7527,7 +7529,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>269</v>
@@ -7547,7 +7549,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="48"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38838</v>
       </c>
@@ -7573,7 +7575,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>270</v>
@@ -7595,7 +7597,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="48"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>147</v>
@@ -7615,7 +7617,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>38869</v>
       </c>
@@ -7639,7 +7641,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>38899</v>
       </c>
@@ -7665,7 +7667,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>273</v>
@@ -7685,7 +7687,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38930</v>
       </c>
@@ -7711,7 +7713,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>276</v>
@@ -7731,7 +7733,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>38961</v>
       </c>
@@ -7757,7 +7759,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>560</v>
@@ -7777,7 +7779,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>38991</v>
       </c>
@@ -7801,7 +7803,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39022</v>
       </c>
@@ -7827,7 +7829,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>142</v>
@@ -7849,7 +7851,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>278</v>
@@ -7869,7 +7871,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>39052</v>
       </c>
@@ -7895,7 +7897,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>282</v>
@@ -7915,7 +7917,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="48"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
         <v>136</v>
       </c>
@@ -7937,7 +7939,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39083</v>
       </c>
@@ -7961,7 +7963,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>142</v>
@@ -7983,7 +7985,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>548</v>
@@ -8005,7 +8007,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>117</v>
@@ -8027,7 +8029,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>39114</v>
       </c>
@@ -8051,7 +8053,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>142</v>
@@ -8073,7 +8075,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>142</v>
@@ -8093,7 +8095,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>288</v>
@@ -8113,7 +8115,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39142</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>147</v>
@@ -8157,7 +8159,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>147</v>
@@ -8177,7 +8179,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>549</v>
@@ -8197,7 +8199,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39173</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>292</v>
@@ -8245,7 +8247,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>142</v>
@@ -8263,7 +8265,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>39203</v>
       </c>
@@ -8289,7 +8291,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>293</v>
@@ -8309,7 +8311,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>236</v>
@@ -8331,7 +8333,7 @@
         <v>39237</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>39234</v>
       </c>
@@ -8357,7 +8359,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>142</v>
@@ -8379,7 +8381,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>295</v>
@@ -8399,7 +8401,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>39264</v>
       </c>
@@ -8425,7 +8427,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>216</v>
@@ -8449,7 +8451,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39295</v>
       </c>
@@ -8475,7 +8477,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>509</v>
@@ -8495,7 +8497,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="48"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39326</v>
       </c>
@@ -8521,7 +8523,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>162</v>
@@ -8541,7 +8543,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>299</v>
@@ -8561,7 +8563,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>300</v>
@@ -8581,7 +8583,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>39356</v>
       </c>
@@ -8607,7 +8609,7 @@
         <v>39092</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>301</v>
@@ -8629,7 +8631,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>142</v>
@@ -8651,7 +8653,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>302</v>
@@ -8671,7 +8673,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>303</v>
@@ -8691,7 +8693,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>273</v>
@@ -8711,7 +8713,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>300</v>
@@ -8731,7 +8733,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39387</v>
       </c>
@@ -8757,7 +8759,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>165</v>
@@ -8779,7 +8781,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>191</v>
@@ -8801,7 +8803,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>308</v>
@@ -8821,7 +8823,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>39417</v>
       </c>
@@ -8847,7 +8849,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>562</v>
@@ -8867,7 +8869,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>142</v>
@@ -8887,7 +8889,7 @@
         <v>39808</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>236</v>
@@ -8907,7 +8909,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="49" t="s">
         <v>135</v>
       </c>
@@ -8929,7 +8931,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>39448</v>
       </c>
@@ -8953,7 +8955,7 @@
         <v>39449</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>309</v>
@@ -8975,7 +8977,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>142</v>
@@ -8995,7 +8997,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>312</v>
@@ -9015,7 +9017,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="48"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>313</v>
@@ -9035,7 +9037,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="48"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>39479</v>
       </c>
@@ -9059,7 +9061,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>165</v>
@@ -9081,7 +9083,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="48"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>314</v>
@@ -9101,7 +9103,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="48"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>315</v>
@@ -9121,7 +9123,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="48"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>39508</v>
       </c>
@@ -9147,7 +9149,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>317</v>
@@ -9167,7 +9169,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>318</v>
@@ -9187,7 +9189,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>39539</v>
       </c>
@@ -9211,7 +9213,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>320</v>
@@ -9235,7 +9237,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>322</v>
@@ -9255,7 +9257,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>323</v>
@@ -9275,7 +9277,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>39569</v>
       </c>
@@ -9299,7 +9301,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>324</v>
@@ -9319,7 +9321,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>325</v>
@@ -9339,7 +9341,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39600</v>
       </c>
@@ -9365,7 +9367,7 @@
         <v>39574</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>165</v>
@@ -9389,7 +9391,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>326</v>
@@ -9409,7 +9411,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="48"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>325</v>
@@ -9429,7 +9431,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="48"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>39630</v>
       </c>
@@ -9455,7 +9457,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>191</v>
@@ -9479,7 +9481,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>177</v>
@@ -9499,7 +9501,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="48"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>39661</v>
       </c>
@@ -9527,7 +9529,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>325</v>
@@ -9547,7 +9549,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>329</v>
@@ -9569,7 +9571,7 @@
         <v>39516</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>39692</v>
       </c>
@@ -9591,7 +9593,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>330</v>
@@ -9615,7 +9617,7 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>165</v>
@@ -9637,7 +9639,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>332</v>
@@ -9657,7 +9659,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="48"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>323</v>
@@ -9677,7 +9679,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="48"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39722</v>
       </c>
@@ -9705,7 +9707,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>165</v>
@@ -9727,7 +9729,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>170</v>
@@ -9747,7 +9749,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="48"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>325</v>
@@ -9767,7 +9769,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="48"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39753</v>
       </c>
@@ -9793,7 +9795,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>165</v>
@@ -9817,7 +9819,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>323</v>
@@ -9837,7 +9839,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="48"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>334</v>
@@ -9857,7 +9859,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="48"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39783</v>
       </c>
@@ -9881,7 +9883,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>336</v>
@@ -9901,7 +9903,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="49" t="s">
         <v>134</v>
       </c>
@@ -9923,7 +9925,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>39814</v>
       </c>
@@ -9949,7 +9951,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>147</v>
@@ -9969,7 +9971,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>165</v>
@@ -9991,7 +9993,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>147</v>
@@ -10011,7 +10013,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>341</v>
@@ -10031,7 +10033,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>39845</v>
       </c>
@@ -10055,7 +10057,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>343</v>
@@ -10075,7 +10077,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>39873</v>
       </c>
@@ -10101,7 +10103,7 @@
         <v>39847</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>142</v>
@@ -10123,7 +10125,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>345</v>
@@ -10143,7 +10145,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="48"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>39904</v>
       </c>
@@ -10169,7 +10171,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>165</v>
@@ -10193,7 +10195,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>348</v>
@@ -10213,7 +10215,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>39934</v>
       </c>
@@ -10239,7 +10241,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>349</v>
@@ -10259,7 +10261,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="48"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>142</v>
@@ -10281,7 +10283,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>39965</v>
       </c>
@@ -10309,7 +10311,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>216</v>
@@ -10333,7 +10335,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>352</v>
@@ -10353,7 +10355,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="48"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>39995</v>
       </c>
@@ -10377,7 +10379,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>40026</v>
       </c>
@@ -10401,7 +10403,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>40057</v>
       </c>
@@ -10427,7 +10429,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>142</v>
@@ -10449,7 +10451,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>357</v>
@@ -10469,7 +10471,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40087</v>
       </c>
@@ -10495,7 +10497,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>358</v>
@@ -10515,7 +10517,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40118</v>
       </c>
@@ -10539,7 +10541,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>40148</v>
       </c>
@@ -10563,7 +10565,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="49" t="s">
         <v>133</v>
       </c>
@@ -10585,7 +10587,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>40179</v>
       </c>
@@ -10609,7 +10611,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>147</v>
@@ -10629,7 +10631,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>195</v>
@@ -10649,7 +10651,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>40210</v>
       </c>
@@ -10673,7 +10675,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>142</v>
@@ -10695,7 +10697,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>336</v>
@@ -10715,7 +10717,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40238</v>
       </c>
@@ -10739,7 +10741,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>40269</v>
       </c>
@@ -10765,7 +10767,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>369</v>
@@ -10785,7 +10787,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>40299</v>
       </c>
@@ -10811,7 +10813,7 @@
         <v>40310</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>370</v>
@@ -10831,7 +10833,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="48"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>40330</v>
       </c>
@@ -10857,7 +10859,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>371</v>
@@ -10877,7 +10879,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="48"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>40360</v>
       </c>
@@ -10903,7 +10905,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>373</v>
@@ -10925,7 +10927,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>375</v>
@@ -10945,7 +10947,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>40391</v>
       </c>
@@ -10969,7 +10971,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>40422</v>
       </c>
@@ -10993,7 +10995,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>40452</v>
       </c>
@@ -11019,7 +11021,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>117</v>
@@ -11041,7 +11043,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>382</v>
@@ -11061,7 +11063,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40483</v>
       </c>
@@ -11087,7 +11089,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>381</v>
@@ -11107,7 +11109,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>40513</v>
       </c>
@@ -11131,7 +11133,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="49" t="s">
         <v>132</v>
       </c>
@@ -11153,7 +11155,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>40544</v>
       </c>
@@ -11177,7 +11179,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>117</v>
@@ -11199,7 +11201,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>385</v>
@@ -11221,7 +11223,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>40575</v>
       </c>
@@ -11245,7 +11247,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>200</v>
@@ -11269,7 +11271,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>165</v>
@@ -11291,7 +11293,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>391</v>
@@ -11311,7 +11313,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>40603</v>
       </c>
@@ -11337,7 +11339,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>392</v>
@@ -11361,7 +11363,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>40634</v>
       </c>
@@ -11381,7 +11383,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>40664</v>
       </c>
@@ -11407,7 +11409,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>40695</v>
       </c>
@@ -11433,7 +11435,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>40725</v>
       </c>
@@ -11453,7 +11455,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>40756</v>
       </c>
@@ -11479,7 +11481,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>40787</v>
       </c>
@@ -11503,7 +11505,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>399</v>
@@ -11523,7 +11525,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>400</v>
@@ -11543,7 +11545,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>40817</v>
       </c>
@@ -11567,7 +11569,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>40848</v>
       </c>
@@ -11593,7 +11595,7 @@
         <v>40585</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>142</v>
@@ -11615,7 +11617,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>142</v>
@@ -11637,7 +11639,7 @@
         <v>40586</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>40878</v>
       </c>
@@ -11661,7 +11663,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>396</v>
@@ -11681,7 +11683,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>396</v>
@@ -11701,7 +11703,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>142</v>
@@ -11723,7 +11725,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>404</v>
@@ -11743,7 +11745,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="48"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="49" t="s">
         <v>131</v>
       </c>
@@ -11765,7 +11767,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>40909</v>
       </c>
@@ -11789,7 +11791,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>405</v>
@@ -11809,7 +11811,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>147</v>
@@ -11829,7 +11831,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>142</v>
@@ -11851,7 +11853,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>406</v>
@@ -11871,7 +11873,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>40940</v>
       </c>
@@ -11895,7 +11897,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>142</v>
@@ -11917,7 +11919,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>396</v>
@@ -11937,7 +11939,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>411</v>
@@ -11957,7 +11959,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>40969</v>
       </c>
@@ -11983,7 +11985,7 @@
         <v>40971</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>396</v>
@@ -12003,7 +12005,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>142</v>
@@ -12025,7 +12027,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>414</v>
@@ -12045,7 +12047,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="48"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>41000</v>
       </c>
@@ -12069,7 +12071,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41030</v>
       </c>
@@ -12095,7 +12097,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>417</v>
@@ -12115,7 +12117,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>396</v>
@@ -12135,7 +12137,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>420</v>
@@ -12155,7 +12157,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>41061</v>
       </c>
@@ -12181,7 +12183,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>422</v>
@@ -12201,7 +12203,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>41091</v>
       </c>
@@ -12227,7 +12229,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>425</v>
@@ -12247,7 +12249,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="48"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>41122</v>
       </c>
@@ -12273,7 +12275,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>117</v>
@@ -12295,7 +12297,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>425</v>
@@ -12315,7 +12317,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="48"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>41153</v>
       </c>
@@ -12341,7 +12343,7 @@
         <v>40918</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>142</v>
@@ -12361,7 +12363,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="48"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>428</v>
@@ -12381,7 +12383,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="48"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>41183</v>
       </c>
@@ -12407,7 +12409,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>427</v>
@@ -12427,7 +12429,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>41214</v>
       </c>
@@ -12453,7 +12455,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>431</v>
@@ -12473,7 +12475,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>41244</v>
       </c>
@@ -12499,7 +12501,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>434</v>
@@ -12519,7 +12521,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="49" t="s">
         <v>130</v>
       </c>
@@ -12541,7 +12543,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41275</v>
       </c>
@@ -12565,7 +12567,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>147</v>
@@ -12585,7 +12587,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>435</v>
@@ -12605,7 +12607,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>41306</v>
       </c>
@@ -12629,7 +12631,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>41334</v>
       </c>
@@ -12653,7 +12655,7 @@
         <v>41279</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41365</v>
       </c>
@@ -12679,7 +12681,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>438</v>
@@ -12701,7 +12703,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41395</v>
       </c>
@@ -12723,7 +12725,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41426</v>
       </c>
@@ -12747,7 +12749,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>442</v>
@@ -12767,7 +12769,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>41456</v>
       </c>
@@ -12791,7 +12793,7 @@
         <v>41401</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>176</v>
@@ -12813,7 +12815,7 @@
         <v>41615</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>176</v>
@@ -12835,7 +12837,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>117</v>
@@ -12857,7 +12859,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>117</v>
@@ -12879,7 +12881,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>41487</v>
       </c>
@@ -12905,7 +12907,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>447</v>
@@ -12925,7 +12927,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>41518</v>
       </c>
@@ -12949,7 +12951,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>449</v>
@@ -12969,7 +12971,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>41548</v>
       </c>
@@ -12993,7 +12995,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>41579</v>
       </c>
@@ -13013,7 +13015,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>41609</v>
       </c>
@@ -13039,7 +13041,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="49" t="s">
         <v>129</v>
       </c>
@@ -13061,7 +13063,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>41640</v>
       </c>
@@ -13085,7 +13087,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>41671</v>
       </c>
@@ -13109,7 +13111,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>147</v>
@@ -13129,7 +13131,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>451</v>
@@ -13149,7 +13151,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>41699</v>
       </c>
@@ -13175,7 +13177,7 @@
         <v>41823</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>176</v>
@@ -13197,7 +13199,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>453</v>
@@ -13219,7 +13221,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>41730</v>
       </c>
@@ -13243,7 +13245,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>117</v>
@@ -13265,7 +13267,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>456</v>
@@ -13285,7 +13287,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>421</v>
@@ -13307,7 +13309,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>41760</v>
       </c>
@@ -13333,7 +13335,7 @@
         <v>41795</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>117</v>
@@ -13355,7 +13357,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>195</v>
@@ -13375,7 +13377,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="48"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>41791</v>
       </c>
@@ -13401,7 +13403,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>142</v>
@@ -13423,7 +13425,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>142</v>
@@ -13445,7 +13447,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>462</v>
@@ -13465,7 +13467,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>41821</v>
       </c>
@@ -13491,7 +13493,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>464</v>
@@ -13513,7 +13515,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>466</v>
@@ -13533,7 +13535,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>41852</v>
       </c>
@@ -13559,7 +13561,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>468</v>
@@ -13579,7 +13581,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>41883</v>
       </c>
@@ -13605,7 +13607,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>470</v>
@@ -13625,7 +13627,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>41913</v>
       </c>
@@ -13649,7 +13651,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>41944</v>
       </c>
@@ -13675,7 +13677,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>142</v>
@@ -13697,7 +13699,7 @@
         <v>41862</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>41974</v>
       </c>
@@ -13723,7 +13725,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>471</v>
@@ -13743,7 +13745,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="48"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="49" t="s">
         <v>128</v>
       </c>
@@ -13765,7 +13767,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>42005</v>
       </c>
@@ -13789,7 +13791,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>147</v>
@@ -13809,7 +13811,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>142</v>
@@ -13829,7 +13831,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>472</v>
@@ -13849,7 +13851,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="48"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>42036</v>
       </c>
@@ -13875,7 +13877,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>142</v>
@@ -13897,7 +13899,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>474</v>
@@ -13917,7 +13919,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="48"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42064</v>
       </c>
@@ -13943,7 +13945,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>236</v>
@@ -13965,7 +13967,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>142</v>
@@ -13987,7 +13989,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>477</v>
@@ -14007,7 +14009,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="48"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>42095</v>
       </c>
@@ -14033,7 +14035,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>147</v>
@@ -14053,7 +14055,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>165</v>
@@ -14075,7 +14077,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>165</v>
@@ -14097,7 +14099,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>482</v>
@@ -14117,7 +14119,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42125</v>
       </c>
@@ -14143,7 +14145,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>484</v>
@@ -14163,7 +14165,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>42156</v>
       </c>
@@ -14189,7 +14191,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>486</v>
@@ -14209,7 +14211,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>42186</v>
       </c>
@@ -14233,7 +14235,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>142</v>
@@ -14255,7 +14257,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>42217</v>
       </c>
@@ -14281,7 +14283,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>488</v>
@@ -14301,7 +14303,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>142</v>
@@ -14323,7 +14325,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>370</v>
@@ -14343,7 +14345,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>42248</v>
       </c>
@@ -14369,7 +14371,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>491</v>
@@ -14389,7 +14391,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>42278</v>
       </c>
@@ -14415,7 +14417,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>494</v>
@@ -14435,7 +14437,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>42309</v>
       </c>
@@ -14461,7 +14463,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>496</v>
@@ -14481,7 +14483,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42339</v>
       </c>
@@ -14507,7 +14509,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>498</v>
@@ -14527,7 +14529,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="49" t="s">
         <v>127</v>
       </c>
@@ -14549,7 +14551,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>42370</v>
       </c>
@@ -14573,7 +14575,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>142</v>
@@ -14595,7 +14597,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>500</v>
@@ -14615,7 +14617,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="48"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>42401</v>
       </c>
@@ -14639,7 +14641,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>142</v>
@@ -14661,7 +14663,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>502</v>
@@ -14681,7 +14683,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="48"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>42430</v>
       </c>
@@ -14707,7 +14709,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>147</v>
@@ -14727,7 +14729,7 @@
         <v>42586</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>504</v>
@@ -14747,7 +14749,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="48"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>42461</v>
       </c>
@@ -14773,7 +14775,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>506</v>
@@ -14793,7 +14795,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>42491</v>
       </c>
@@ -14819,7 +14821,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>146</v>
@@ -14839,7 +14841,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>42522</v>
       </c>
@@ -14865,7 +14867,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>308</v>
@@ -14885,7 +14887,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>42552</v>
       </c>
@@ -14909,7 +14911,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>42583</v>
       </c>
@@ -14935,7 +14937,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>511</v>
@@ -14955,7 +14957,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>42614</v>
       </c>
@@ -14981,7 +14983,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>142</v>
@@ -15003,7 +15005,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>513</v>
@@ -15023,7 +15025,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="50"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>42644</v>
       </c>
@@ -15049,7 +15051,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>515</v>
@@ -15069,7 +15071,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>42675</v>
       </c>
@@ -15095,7 +15097,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>516</v>
@@ -15115,7 +15117,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>42705</v>
       </c>
@@ -15139,7 +15141,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="49" t="s">
         <v>126</v>
       </c>
@@ -15161,7 +15163,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>42736</v>
       </c>
@@ -15185,7 +15187,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>517</v>
@@ -15205,7 +15207,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>42767</v>
       </c>
@@ -15231,7 +15233,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>519</v>
@@ -15251,7 +15253,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="48"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>42795</v>
       </c>
@@ -15275,7 +15277,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>142</v>
@@ -15297,7 +15299,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>42826</v>
       </c>
@@ -15321,7 +15323,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>521</v>
@@ -15341,7 +15343,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="48"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>42856</v>
       </c>
@@ -15367,7 +15369,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>142</v>
@@ -15389,7 +15391,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>523</v>
@@ -15409,7 +15411,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="48"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>42887</v>
       </c>
@@ -15435,7 +15437,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>117</v>
@@ -15457,7 +15459,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>435</v>
@@ -15477,7 +15479,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>42917</v>
       </c>
@@ -15503,7 +15505,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>142</v>
@@ -15525,7 +15527,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>482</v>
@@ -15545,7 +15547,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>42948</v>
       </c>
@@ -15571,7 +15573,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>142</v>
@@ -15593,7 +15595,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>530</v>
@@ -15613,7 +15615,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>42979</v>
       </c>
@@ -15639,7 +15641,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>532</v>
@@ -15659,7 +15661,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>43009</v>
       </c>
@@ -15685,7 +15687,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>117</v>
@@ -15707,7 +15709,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>191</v>
@@ -15731,7 +15733,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>535</v>
@@ -15751,7 +15753,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>43040</v>
       </c>
@@ -15771,7 +15773,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>43070</v>
       </c>
@@ -15795,7 +15797,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="23" t="s">
         <v>45</v>
       </c>
@@ -15813,7 +15815,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>43101</v>
       </c>
@@ -15837,7 +15839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43132</v>
       </c>
@@ -15859,7 +15861,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>48</v>
@@ -15881,7 +15883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>46</v>
@@ -15903,7 +15905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="41">
         <v>43160</v>
       </c>
@@ -15923,7 +15925,7 @@
       <c r="J583" s="12"/>
       <c r="K583" s="15"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>43191</v>
       </c>
@@ -15947,7 +15949,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>52</v>
@@ -15971,7 +15973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>43221</v>
       </c>
@@ -15995,7 +15997,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>55</v>
@@ -16019,7 +16021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>43252</v>
       </c>
@@ -16045,7 +16047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>55</v>
@@ -16069,7 +16071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>59</v>
@@ -16091,7 +16093,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>43282</v>
       </c>
@@ -16111,7 +16113,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>43313</v>
       </c>
@@ -16135,7 +16137,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>43344</v>
       </c>
@@ -16161,7 +16163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>43374</v>
       </c>
@@ -16187,7 +16189,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>43405</v>
       </c>
@@ -16213,7 +16215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>43435</v>
       </c>
@@ -16239,7 +16241,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="49" t="s">
         <v>67</v>
       </c>
@@ -16257,7 +16259,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>43466</v>
       </c>
@@ -16281,7 +16283,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>68</v>
@@ -16303,7 +16305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>43497</v>
       </c>
@@ -16327,7 +16329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>43525</v>
       </c>
@@ -16349,7 +16351,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
         <v>52</v>
@@ -16373,7 +16375,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>43556</v>
       </c>
@@ -16397,7 +16399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>75</v>
@@ -16423,7 +16425,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43586</v>
       </c>
@@ -16443,7 +16445,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>43617</v>
       </c>
@@ -16467,7 +16469,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>52</v>
@@ -16489,7 +16491,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>79</v>
@@ -16513,7 +16515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>43647</v>
       </c>
@@ -16537,7 +16539,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>48</v>
@@ -16561,7 +16563,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>43678</v>
       </c>
@@ -16585,7 +16587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>81</v>
@@ -16609,7 +16611,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>43709</v>
       </c>
@@ -16635,7 +16637,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>43739</v>
       </c>
@@ -16663,7 +16665,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>43770</v>
       </c>
@@ -16689,7 +16691,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>43800</v>
       </c>
@@ -16713,7 +16715,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="49" t="s">
         <v>87</v>
       </c>
@@ -16731,7 +16733,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>43831</v>
       </c>
@@ -16755,7 +16757,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>88</v>
@@ -16777,7 +16779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>89</v>
@@ -16799,7 +16801,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>43862</v>
       </c>
@@ -16819,7 +16821,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>43891</v>
       </c>
@@ -16839,7 +16841,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>43922</v>
       </c>
@@ -16859,7 +16861,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>43952</v>
       </c>
@@ -16879,7 +16881,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>43983</v>
       </c>
@@ -16899,7 +16901,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>44013</v>
       </c>
@@ -16923,7 +16925,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>92</v>
@@ -16947,7 +16949,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>44044</v>
       </c>
@@ -16967,7 +16969,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>44075</v>
       </c>
@@ -16987,7 +16989,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>44105</v>
       </c>
@@ -17007,7 +17009,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>44136</v>
       </c>
@@ -17027,7 +17029,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>44166</v>
       </c>
@@ -17051,7 +17053,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="49" t="s">
         <v>94</v>
       </c>
@@ -17069,7 +17071,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>44197</v>
       </c>
@@ -17089,7 +17091,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>44228</v>
       </c>
@@ -17115,7 +17117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>44256</v>
       </c>
@@ -17135,7 +17137,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>44287</v>
       </c>
@@ -17155,7 +17157,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>44317</v>
       </c>
@@ -17175,7 +17177,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>44348</v>
       </c>
@@ -17195,7 +17197,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>44378</v>
       </c>
@@ -17219,7 +17221,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>55</v>
@@ -17241,7 +17243,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>48</v>
@@ -17265,7 +17267,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>44409</v>
       </c>
@@ -17291,7 +17293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>44440</v>
       </c>
@@ -17311,7 +17313,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>44470</v>
       </c>
@@ -17337,7 +17339,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>44501</v>
       </c>
@@ -17363,7 +17365,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>44531</v>
       </c>
@@ -17389,7 +17391,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="49" t="s">
         <v>87</v>
       </c>
@@ -17407,7 +17409,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>44562</v>
       </c>
@@ -17431,7 +17433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>44593</v>
       </c>
@@ -17451,7 +17453,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44621</v>
       </c>
@@ -17475,7 +17477,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>44652</v>
       </c>
@@ -17495,7 +17497,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>44682</v>
       </c>
@@ -17515,7 +17517,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>44713</v>
       </c>
@@ -17541,7 +17543,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>44743</v>
       </c>
@@ -17567,7 +17569,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>44774</v>
       </c>
@@ -17593,7 +17595,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
         <v>112</v>
@@ -17615,7 +17617,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>44805</v>
       </c>
@@ -17641,7 +17643,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>54</v>
@@ -17663,7 +17665,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>44835</v>
       </c>
@@ -17689,7 +17691,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>48</v>
@@ -17711,7 +17713,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>52</v>
@@ -17733,7 +17735,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>44866</v>
       </c>
@@ -17759,7 +17761,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>44896</v>
       </c>
@@ -17785,7 +17787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="49" t="s">
         <v>114</v>
       </c>
@@ -17803,7 +17805,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>44927</v>
       </c>
@@ -17827,7 +17829,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
         <v>117</v>
@@ -17849,7 +17851,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>117</v>
@@ -17871,7 +17873,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>44958</v>
       </c>
@@ -17895,7 +17897,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
         <v>55</v>
@@ -17917,7 +17919,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>44986</v>
       </c>
@@ -17943,7 +17945,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
         <v>54</v>
@@ -17965,7 +17967,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>45017</v>
       </c>
@@ -17991,7 +17993,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20" t="s">
         <v>55</v>
@@ -18013,7 +18015,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>45047</v>
       </c>
@@ -18039,7 +18041,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>45078</v>
       </c>
@@ -18065,7 +18067,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>117</v>
@@ -18087,7 +18089,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>176</v>
@@ -18109,7 +18111,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>45108</v>
       </c>
@@ -18133,13 +18135,15 @@
         <v>570</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A680" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B680" s="20"/>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A680" s="40"/>
+      <c r="B680" s="20" t="s">
+        <v>246</v>
+      </c>
       <c r="C680" s="13"/>
-      <c r="D680" s="39"/>
+      <c r="D680" s="39">
+        <v>3</v>
+      </c>
       <c r="E680" s="9"/>
       <c r="F680" s="20"/>
       <c r="G680" s="13" t="str">
@@ -18149,11 +18153,13 @@
       <c r="H680" s="39"/>
       <c r="I680" s="9"/>
       <c r="J680" s="11"/>
-      <c r="K680" s="20"/>
-    </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K680" s="20" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18169,9 +18175,9 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18187,9 +18193,9 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18205,9 +18211,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18223,9 +18229,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18241,9 +18247,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18259,9 +18265,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18277,9 +18283,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18295,9 +18301,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18313,9 +18319,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18331,9 +18337,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18349,9 +18355,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18367,9 +18373,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18385,9 +18391,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18403,9 +18409,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18421,9 +18427,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18439,9 +18445,9 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18457,9 +18463,9 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18475,9 +18481,9 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18493,9 +18499,9 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18511,9 +18517,9 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18529,9 +18535,9 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18547,9 +18553,9 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18565,8 +18571,10 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A704" s="40"/>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A704" s="40">
+        <v>45839</v>
+      </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
       <c r="D704" s="39"/>
@@ -18581,7 +18589,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18597,7 +18605,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18613,7 +18621,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18629,7 +18637,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18645,21 +18653,37 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A709" s="41"/>
-      <c r="B709" s="15"/>
-      <c r="C709" s="42"/>
-      <c r="D709" s="43"/>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A709" s="40"/>
+      <c r="B709" s="20"/>
+      <c r="C709" s="13"/>
+      <c r="D709" s="39"/>
       <c r="E709" s="9"/>
-      <c r="F709" s="15"/>
+      <c r="F709" s="20"/>
       <c r="G709" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H709" s="43"/>
+      <c r="H709" s="39"/>
       <c r="I709" s="9"/>
-      <c r="J709" s="12"/>
-      <c r="K709" s="15"/>
+      <c r="J709" s="11"/>
+      <c r="K709" s="20"/>
+    </row>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A710" s="41"/>
+      <c r="B710" s="15"/>
+      <c r="C710" s="42"/>
+      <c r="D710" s="43"/>
+      <c r="E710" s="9"/>
+      <c r="F710" s="15"/>
+      <c r="G710" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H710" s="43"/>
+      <c r="I710" s="9"/>
+      <c r="J710" s="12"/>
+      <c r="K710" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18677,10 +18701,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18703,28 +18727,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -18737,7 +18761,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18766,7 +18790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -18790,17 +18814,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18821,7 +18845,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18848,7 +18872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18874,7 +18898,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18900,7 +18924,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18926,7 +18950,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18952,7 +18976,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18978,7 +19002,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19004,7 +19028,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19030,7 +19054,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19050,7 +19074,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19070,7 +19094,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19090,7 +19114,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19111,7 +19135,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19132,7 +19156,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19153,7 +19177,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19174,7 +19198,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19195,7 +19219,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19216,7 +19240,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19237,7 +19261,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19258,7 +19282,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19279,7 +19303,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19300,7 +19324,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19321,7 +19345,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19342,7 +19366,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19363,7 +19387,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19384,7 +19408,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19405,7 +19429,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19426,7 +19450,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19447,7 +19471,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19468,7 +19492,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19489,7 +19513,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19510,7 +19534,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19519,7 +19543,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19528,7 +19552,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19537,7 +19561,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19546,7 +19570,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19555,7 +19579,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19564,7 +19588,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19573,7 +19597,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19582,7 +19606,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19591,7 +19615,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19600,7 +19624,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19609,7 +19633,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19618,7 +19642,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19627,7 +19651,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19636,7 +19660,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19645,7 +19669,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19654,7 +19678,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19663,7 +19687,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19672,7 +19696,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19681,7 +19705,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19690,7 +19714,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19699,7 +19723,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19708,7 +19732,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19717,7 +19741,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19726,7 +19750,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19735,7 +19759,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19744,7 +19768,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19753,7 +19777,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19762,7 +19786,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19771,7 +19795,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/OJT/ALEGA, ESTELITA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="574">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1759,6 +1759,12 @@
   </si>
   <si>
     <t>7/7,10,11/2023</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>7/19-28/2023</t>
   </si>
 </sst>
 </file>
@@ -2465,8 +2471,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K710" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K710"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K711" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K711"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2795,12 +2801,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K710"/>
+  <dimension ref="A2:K711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="3510" topLeftCell="A661" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E680" sqref="E680"/>
+      <selection pane="bottomLeft" activeCell="E681" sqref="E681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,7 +2973,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>14.137000000000114</v>
+        <v>6.1370000000001141</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -18158,12 +18164,14 @@
       </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A681" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B681" s="20"/>
+      <c r="A681" s="40"/>
+      <c r="B681" s="20" t="s">
+        <v>572</v>
+      </c>
       <c r="C681" s="13"/>
-      <c r="D681" s="39"/>
+      <c r="D681" s="39">
+        <v>8</v>
+      </c>
       <c r="E681" s="9"/>
       <c r="F681" s="20"/>
       <c r="G681" s="13" t="str">
@@ -18173,11 +18181,13 @@
       <c r="H681" s="39"/>
       <c r="I681" s="9"/>
       <c r="J681" s="11"/>
-      <c r="K681" s="20"/>
+      <c r="K681" s="20" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18195,7 +18205,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18213,7 +18223,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18231,7 +18241,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18249,7 +18259,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18267,7 +18277,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18285,7 +18295,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18303,7 +18313,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18321,7 +18331,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18339,7 +18349,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18357,7 +18367,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18375,7 +18385,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18393,7 +18403,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18411,7 +18421,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18429,7 +18439,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18447,7 +18457,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18465,7 +18475,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18483,7 +18493,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18501,7 +18511,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18519,7 +18529,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18537,7 +18547,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18555,7 +18565,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18573,7 +18583,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18590,7 +18600,9 @@
       <c r="K704" s="20"/>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A705" s="40"/>
+      <c r="A705" s="40">
+        <v>45839</v>
+      </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
       <c r="D705" s="39"/>
@@ -18670,20 +18682,36 @@
       <c r="K709" s="20"/>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A710" s="41"/>
-      <c r="B710" s="15"/>
-      <c r="C710" s="42"/>
-      <c r="D710" s="43"/>
+      <c r="A710" s="40"/>
+      <c r="B710" s="20"/>
+      <c r="C710" s="13"/>
+      <c r="D710" s="39"/>
       <c r="E710" s="9"/>
-      <c r="F710" s="15"/>
+      <c r="F710" s="20"/>
       <c r="G710" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H710" s="43"/>
+      <c r="H710" s="39"/>
       <c r="I710" s="9"/>
-      <c r="J710" s="12"/>
-      <c r="K710" s="15"/>
+      <c r="J710" s="11"/>
+      <c r="K710" s="20"/>
+    </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A711" s="41"/>
+      <c r="B711" s="15"/>
+      <c r="C711" s="42"/>
+      <c r="D711" s="43"/>
+      <c r="E711" s="9"/>
+      <c r="F711" s="15"/>
+      <c r="G711" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H711" s="43"/>
+      <c r="I711" s="9"/>
+      <c r="J711" s="12"/>
+      <c r="K711" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
